--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681192.575767239</v>
+        <v>1774340.406921056</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5726651.300200751</v>
+        <v>6162196.669556039</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>378.4804603970943</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.5456573622689</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738364</v>
       </c>
       <c r="X4" t="n">
-        <v>139.9514671241867</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.5312953591937</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>30.5520285408729</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.97715937730158</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>271.7368624962564</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>214.9695147324804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023052</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>310.8326411358238</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>408.2657007766929</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>116.0222355487763</v>
       </c>
       <c r="H16" t="n">
-        <v>35.3478058351356</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>64.9050769803803</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790287</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016121</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456169966</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>50.30825486906632</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>4.745772102246885e-12</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2953,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>83.71046610478319</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430585</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>281.6392935584443</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>239.7909713904971</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>215.3821362116119</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222839</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>217.6486705748974</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.8355823247571</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.0148405224497</v>
+        <v>1331.865744460759</v>
       </c>
       <c r="C2" t="n">
-        <v>542.872367705873</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4373,7 +4375,7 @@
         <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.314411007358</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4525,7 +4527,7 @@
         <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1693.062784852648</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
         <v>1551.697666545389</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.7890572316417</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C5" t="n">
-        <v>944.6869884554691</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>912.8176076703177</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.1381447155</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1625.99568129481</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.709557594464</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687902</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,13 +4810,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4841,13 +4843,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2639.200191541657</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2616.793050464902</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4945,16 +4947,16 @@
         <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>930.5954466717699</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>492.4529738551931</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>56.54318902963765</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>56.54318902963765</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>56.54318902963765</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G11" t="n">
-        <v>56.54318902963765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5387406219839</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.17905886668</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2184.323604277713</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1765.181140857024</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1356.895017156678</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>93.80629903465757</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677765</v>
+        <v>418.3646240008699</v>
       </c>
       <c r="K12" t="n">
-        <v>484.0630267508874</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>484.0630267508874</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>484.0630267508874</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>484.0630267508874</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508874</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.705114763053</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1619.705114763053</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1207.315518018919</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>773.5407731772136</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>345.6733435864214</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096956</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772709</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183742</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763053</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.705114763053</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677765</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>484.0630267508874</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>484.0630267508874</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508874</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508874</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508874</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4225290098748</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F16" t="n">
-        <v>257.4225290098748</v>
+        <v>439.5264001758</v>
       </c>
       <c r="G16" t="n">
-        <v>91.8312540357025</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677765</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,13 +5521,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883958</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716207</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731434</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731434</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5701,22 +5703,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5935,7 +5937,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
         <v>2454.80183470935</v>
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6078,7 +6080,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716116</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731343</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238716</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856278</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6177,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.573296407379</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C28" t="n">
-        <v>831.0115848906036</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D28" t="n">
-        <v>665.1335920921263</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>495.3755883428635</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>318.6685343046197</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>153.0772593304474</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707844</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6546,19 +6548,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D31" t="n">
-        <v>617.7751448769883</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>4988.825572384377</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4988.825572384377</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4710.392571637482</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4423.437063507913</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4151.410659094205</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3906.018904427618</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6950,7 +6952,7 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7175,19 +7177,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1021.773653488281</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
         <v>5113.042013538981</v>
@@ -7199,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.736370643972</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>709.5938978273957</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>273.6841130018402</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>273.6841130018402</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677765</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>722.6273955810123</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.191591333636</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086259</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.319982838882</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249916</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>1982.322064829227</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1574.03594112888</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723525</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723525</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L42" t="n">
-        <v>776.7542685698586</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.801965382963</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>236.0047077152468</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>59.29765367700296</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677765</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677765</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>714.1160144682002</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>275.9735416516235</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>275.9735416516235</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>275.9735416516235</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677765</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096956</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.252755711921</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028938</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962764</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>1559.558048373797</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>1140.415584953108</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.415584953108</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188009</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334562</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661516</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277677</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543861</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360074</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520531</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486744</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744543</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287266</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617867</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617836</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679835</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413029</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651909</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.55586743113</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.7448559534066</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>796.7448559534066</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2544.66925973659</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2298.789813315046</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2020.356812568151</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1733.401304438582</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1461.374900024873</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1215.983145358286</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.5634746723938</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P3" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097206</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869796</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869796</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097206</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9169,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,10 +9728,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,10 +10126,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10194,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>169.6543172077065</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163986</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>250.5532291041459</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097206</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>630.4235620779136</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>125.6469905667124</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>144.0212658330313</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>111.2039336442349</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.28498620060702</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.91312667565435</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1553467313936</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168658</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>110.034906517481</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627306</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627309</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>88.19489769746291</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.34995760698692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.67467827192478</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,16 +25125,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2.446659489829528</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.146865729424519</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>208.2066190832724</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>208.219724947343</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.9400847199869</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>30.81337269022617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357609.1034696638</v>
+        <v>506674.0490670245</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357609.1034696636</v>
+        <v>506674.0490670246</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540296.4573170622</v>
+        <v>540296.4573170624</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>540296.4573170622</v>
+        <v>540296.4573170623</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540296.4573170622</v>
+        <v>540296.4573170623</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357609.1034696638</v>
+        <v>506674.0490670246</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357609.1034696637</v>
+        <v>506674.0490670246</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178062</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.603241412</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="H2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="I2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="H2" t="n">
-        <v>395143.1881030143</v>
-      </c>
-      <c r="I2" t="n">
-        <v>395143.188103014</v>
-      </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.603241412</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414119</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045626</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334078</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343471</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="K4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343539</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17932.58645313147</v>
+        <v>-17932.5864531314</v>
       </c>
       <c r="C6" t="n">
         <v>205767.1121309135</v>
       </c>
       <c r="D6" t="n">
-        <v>205767.1121309133</v>
+        <v>205767.1121309134</v>
       </c>
       <c r="E6" t="n">
-        <v>199280.0638182049</v>
+        <v>135263.8414241514</v>
       </c>
       <c r="F6" t="n">
-        <v>209451.0604186612</v>
+        <v>285929.5949958992</v>
       </c>
       <c r="G6" t="n">
-        <v>145120.2669806199</v>
+        <v>274089.9347541212</v>
       </c>
       <c r="H6" t="n">
+        <v>303179.743926729</v>
+      </c>
+      <c r="I6" t="n">
         <v>303179.7439267291</v>
-      </c>
-      <c r="I6" t="n">
-        <v>303179.7439267289</v>
       </c>
       <c r="J6" t="n">
         <v>128528.3952090229</v>
@@ -26552,16 +26554,16 @@
         <v>303179.743926729</v>
       </c>
       <c r="M6" t="n">
-        <v>294690.6622233882</v>
+        <v>177428.6555910383</v>
       </c>
       <c r="N6" t="n">
         <v>303179.743926729</v>
       </c>
       <c r="O6" t="n">
-        <v>209451.0604186611</v>
+        <v>285929.5949958993</v>
       </c>
       <c r="P6" t="n">
-        <v>209451.060418661</v>
+        <v>285929.5949958992</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186368</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186345</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186368</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.0702265802056</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.65760510107418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27597,10 +27599,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>102.986369995735</v>
       </c>
       <c r="X4" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.505279420865</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>370.2548715022041</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28530,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.289749280704185e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28773,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-3.462733867707496e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.50022678360063e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29196,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.745772102246885e-12</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29451,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.462733867707496e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P3" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35012,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35176,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097206</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869796</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869796</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097206</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35887,16 +35889,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>169.6543172077065</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5.881569965118661e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,7 +37560,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163986</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>250.5532291041459</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097206</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>630.4235620779136</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1774340.406921056</v>
+        <v>1773734.319292159</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797162</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>378.4804603970943</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.5368897552615</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613754</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>166.3197703738364</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>345.4056667988684</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -958,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>3.13954148002296</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>313.4423583424372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>30.5520285408729</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>271.7368624962564</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>175.0349193669804</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>190.9951080593935</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.8326411358238</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>214.211065646574</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>116.0222355487763</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>187.4537730419684</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>64.9050769803803</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790287</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9742767430585</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>185.622538481805</v>
       </c>
     </row>
     <row r="35">
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309559</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.6974459740354</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>145.4261460119187</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888162</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>61.08641542222839</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>145.4261460119187</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>289.602966398842</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>101.7706336613763</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.865744460759</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>1297.763675684586</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
         <v>1058.729261281022</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.9996686250441</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>455.8571958084675</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
         <v>106.9625828803175</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1743.687422190584</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1728.585362810299</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.299239109952</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>56.57247054885377</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>56.57247054885377</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541657</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G10" t="n">
         <v>53.40121652862856</v>
@@ -4959,22 +4959,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862846</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238914</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.310742413359</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716538</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>368.6685679808615</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
         <v>94.18688869171365</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M11" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N11" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.80629903465757</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>418.3646240008699</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>856.2190315828657</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>683.6573200660906</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>517.7793272676133</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885365</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2358.263988944505</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2079.83098819761</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1792.875480068041</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1520.849075654332</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1275.457320987745</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1048.037650301853</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2447.237176554637</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>2009.094703738061</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1573.184918912505</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>1139.4101740708</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>711.542744480008</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>310.1449131032718</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>204.2812984327036</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.37507872995</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.37507872995</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N14" t="n">
         <v>2164.362573827329</v>
@@ -5308,22 +5308,22 @@
         <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942682</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.282663259699</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193525</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W14" t="n">
-        <v>3661.810258604559</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X14" t="n">
-        <v>3242.66779518387</v>
+        <v>3281.822870739892</v>
       </c>
       <c r="Y14" t="n">
-        <v>2834.381671483523</v>
+        <v>2873.536747039545</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D16" t="n">
-        <v>609.2844039250627</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>439.5264001758</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>439.5264001758</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885365</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2115.961648601167</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1829.006140471598</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1556.97973605789</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1311.587981391302</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1084.16831070541</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883958</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716207</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731434</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>473.3149733731434</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5709,16 +5709,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3486.780615022739</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3314.218903505964</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3148.340910707486</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2978.582906958224</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4988.825572384377</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T31" t="n">
-        <v>4988.825572384377</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U31" t="n">
-        <v>4710.392571637482</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>4423.437063507913</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>4151.410659094205</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>3906.018904427618</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>3678.599233741726</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,28 +7177,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7359,22 +7359,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514815</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
         <v>1373.137619601648</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
@@ -7417,22 +7417,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942682</v>
@@ -7444,19 +7444,19 @@
         <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.609868960946</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.992918894773</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3774.137464305806</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.995000885117</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885365</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002201</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2520.422913940501</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2520.422913940501</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942682</v>
@@ -7681,10 +7681,10 @@
         <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.609868960946</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
         <v>3774.137464305806</v>
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.2661363957848</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790097</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805324</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312697</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2586.213268067049</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2586.213268067049</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>713.2395913281071</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0365653694989021</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9169,16 +9169,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1050.67235666819</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10129,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>630.4235620779136</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>125.6469905667124</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.83163548871136</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>52.42554389793574</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111.2039336442349</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>72.02778736464191</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.91312667565435</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>88.19489769745726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.034906517481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>34.67467827192478</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>39.52293549722782</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.4480280049974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>111.2039336442346</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>208.219724947343</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>111.2039336442346</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>111.203933644235</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>55.87832135360702</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540296.4573170624</v>
+        <v>540296.4573170623</v>
       </c>
     </row>
     <row r="8">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178065</v>
+      </c>
+      <c r="C2" t="n">
         <v>402110.4899178063</v>
       </c>
-      <c r="C2" t="n">
-        <v>402110.4899178065</v>
-      </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>370553.603241412</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="F2" t="n">
         <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="H2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
@@ -26352,7 +26352,7 @@
         <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
-        <v>370553.603241412</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="P2" t="n">
         <v>370553.6032414119</v>
@@ -26420,7 +26420,7 @@
         <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251353</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
@@ -26429,7 +26429,7 @@
         <v>13358.73276318391</v>
       </c>
       <c r="F4" t="n">
-        <v>13358.73276318391</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17932.5864531314</v>
+        <v>-17932.58645313133</v>
       </c>
       <c r="C6" t="n">
+        <v>205767.1121309134</v>
+      </c>
+      <c r="D6" t="n">
         <v>205767.1121309135</v>
       </c>
-      <c r="D6" t="n">
-        <v>205767.1121309134</v>
-      </c>
       <c r="E6" t="n">
-        <v>135263.8414241514</v>
+        <v>135158.6518018967</v>
       </c>
       <c r="F6" t="n">
-        <v>285929.5949958992</v>
+        <v>285824.4053736445</v>
       </c>
       <c r="G6" t="n">
-        <v>274089.9347541212</v>
+        <v>274066.7104147384</v>
       </c>
       <c r="H6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="I6" t="n">
-        <v>303179.7439267291</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="J6" t="n">
-        <v>128528.3952090229</v>
+        <v>128505.1708696402</v>
       </c>
       <c r="K6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873464</v>
       </c>
       <c r="L6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="M6" t="n">
-        <v>177428.6555910383</v>
+        <v>177405.4312516557</v>
       </c>
       <c r="N6" t="n">
-        <v>303179.743926729</v>
+        <v>303156.5195873463</v>
       </c>
       <c r="O6" t="n">
-        <v>285929.5949958993</v>
+        <v>285824.4053736445</v>
       </c>
       <c r="P6" t="n">
-        <v>285929.5949958992</v>
+        <v>285824.4053736445</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>53.0702265802056</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>71.70196325595435</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.986369995735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>86.14502017843154</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>84.63380825304846</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>83.94149472053158</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>370.2548715022041</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>713.2395913281071</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0365653694989021</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35889,16 +35889,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1050.67235666819</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36849,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>630.4235620779136</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
